--- a/cneo_synergy/Data/Data_for_specific_gene_sets/Selected_GO_terms.xlsx
+++ b/cneo_synergy/Data/Data_for_specific_gene_sets/Selected_GO_terms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t xml:space="preserve">treatment</t>
   </si>
@@ -145,12 +145,6 @@
     <t xml:space="preserve">GO:0044038</t>
   </si>
   <si>
-    <t xml:space="preserve">protein catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030163</t>
-  </si>
-  <si>
     <t xml:space="preserve">cellular ion homeostasis</t>
   </si>
   <si>
@@ -163,12 +157,6 @@
     <t xml:space="preserve">GO:0006511</t>
   </si>
   <si>
-    <t xml:space="preserve">calcium-mediated signaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0019722</t>
-  </si>
-  <si>
     <t xml:space="preserve">cell wall beta-glucan metabolic process</t>
   </si>
   <si>
@@ -196,22 +184,10 @@
     <t xml:space="preserve">GO:0006397</t>
   </si>
   <si>
-    <t xml:space="preserve">RNA splicing, via transesterification reactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0000375</t>
-  </si>
-  <si>
     <t xml:space="preserve">RNA splicing</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0008380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA splicing, via spliceosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0000398</t>
   </si>
   <si>
     <t xml:space="preserve">RNA processing</t>
@@ -342,10 +318,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,7 +540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -575,7 +551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,7 +562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -608,31 +584,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>54</v>
@@ -643,7 +619,7 @@
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>56</v>
@@ -652,9 +628,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>58</v>
@@ -665,7 +641,7 @@
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>60</v>
@@ -674,59 +650,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
